--- a/data/vlsp2016/eda/train/column-1-analyze.xlsx
+++ b/data/vlsp2016/eda/train/column-1-analyze.xlsx
@@ -59,7 +59,7 @@
     <t>I</t>
   </si>
   <si>
-    <t>ơi, ạ, à, Vâng, À, nhé, nhỉ, Thôi, thay, hả</t>
+    <t>ơi, ạ, à, Vâng, nhé, À, Thôi, nhỉ, hả, Chao ôi</t>
   </si>
   <si>
     <t>L</t>
@@ -89,7 +89,7 @@
     <t>Np</t>
   </si>
   <si>
-    <t>VN, Nguyễn, Văn, Mỹ, Hùng, Hải, Việt, Hà Nội, Nam, Hoàng</t>
+    <t>VN, Nguyễn, Văn, Mỹ, Hùng, Hải, Việt, Nam, Hà Nội, Hoàng</t>
   </si>
   <si>
     <t>Nu</t>
@@ -101,7 +101,7 @@
     <t>Ny</t>
   </si>
   <si>
-    <t>TP., TP, UBND, SV, ĐH, TB, DN, HIV, HS, LĐ</t>
+    <t>TP., TP, UBND, SV, ĐH, TB, DN, HIV, LĐ, HS</t>
   </si>
   <si>
     <t>P</t>
@@ -119,7 +119,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>cả, chính, ngay, thôi, rồi, cái, Ngay, thật, mà, đâu</t>
+    <t>cả, chính, ngay, thôi, rồi, cái, Ngay, thật, đâu, mà</t>
   </si>
   <si>
     <t>V</t>
@@ -137,13 +137,13 @@
     <t>X</t>
   </si>
   <si>
-    <t>như thế, như vậy, làm sao, nhất là, thế nào, có lẽ, ngày càng, vì sao, một mình, Như vậy</t>
+    <t>như thế, như vậy, làm sao, nhất là, thế nào, ngày càng, có lẽ, vì sao, một mình, Như vậy</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
-    <t>phó, viên, siêu, tái, tổng, bất, hoá, liên, vô, thất</t>
+    <t>phó, viên, siêu, tổng, tái, bất, liên, hoá, vô, Phó</t>
   </si>
 </sst>
 </file>
